--- a/data/trans_orig/P74B2S1_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1_2015-Habitat-trans_orig.xlsx
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>18,2%</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>72,58%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,67%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,82%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>11,41%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>58,0%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>73,49%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>84,71%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>61,3%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>85,97%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>76,65%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>89,44%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,01%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>71,69%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>82,86%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>84,88%</t>
         </is>
       </c>
     </row>
